--- a/Comparison_Matrices/portability.xlsx
+++ b/Comparison_Matrices/portability.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/guribhangu/development/research/qatch/Comparison_Matrices/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{41FC30F4-56AD-7942-931B-FDE1CE3CDA3F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A48943E-FF88-2044-ABEA-7DF843C6413C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="35840" windowHeight="22400" xr2:uid="{0C731EA6-9FBD-E341-A806-945FDC326FC8}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="35840" windowHeight="20660" xr2:uid="{0C731EA6-9FBD-E341-A806-945FDC326FC8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
